--- a/Analysis Projects/Crowdfunding Analysis/Module 1 Challenge/Module 1 Challenge.xlsx
+++ b/Analysis Projects/Crowdfunding Analysis/Module 1 Challenge/Module 1 Challenge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisrey/Desktop/Analysis Projects/Crowdfunding Analysis/Module 1 Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356071E5-FBC9-BA46-A5AA-3F9B1A829954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF56BAEB-ABA2-094D-9E56-C42541875DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="25040" windowHeight="14500" activeTab="1" xr2:uid="{92E68132-FF8A-7E4E-934F-E42C4DC3DB03}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25040" windowHeight="14500" xr2:uid="{92E68132-FF8A-7E4E-934F-E42C4DC3DB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Based on Launch Date" sheetId="5" r:id="rId1"/>
@@ -158,16 +158,10 @@
     <t>According to our data set on Chart A, spending more that a week on a campaign increses the probability of success by at least 50%; but that statistics only shows up to the fourth week. Campaigns with duration of more than a month experience decline in its success ratio each week that passes by.</t>
   </si>
   <si>
-    <t>As shown on Chart B, many campaign still prefers to finish their projects within a 30 day period. And that range still holds the most number of successful campaign even tho it has a lower success ratio (compared to two-week, and three-week, and four-week campaigns).</t>
-  </si>
-  <si>
     <t>30 days</t>
   </si>
   <si>
     <t xml:space="preserve">Mode=  </t>
-  </si>
-  <si>
-    <t>In conclusion, prolonging the camaign would not help, but forshortening might; also the entire duration must be more than a week.</t>
   </si>
   <si>
     <t xml:space="preserve">  Copy of sheet exist in Kickstarter File titled: Outcome Based on Goal</t>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>In conclusion, every time the goal increases, the lower the chance of it getting fully funded.  $1000 to $5000 is a good range to consider based on the number of successful campaigns.</t>
+  </si>
+  <si>
+    <t>As shown on Chart B, many campaign still prefers to finish their projects within a 30 day period. And that range still holds the most number of successful campaign even though it has a lower success ratio (compared to two-week, and three-week, and four-week campaigns).</t>
+  </si>
+  <si>
+    <t>In conclusion, prolonging the campaign would not help, but foreshortening might; also the entire duration must be more than a week.</t>
   </si>
 </sst>
 </file>
@@ -434,6 +434,69 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -469,72 +532,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -542,6 +539,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -70845,13 +70845,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E08893-BC29-C243-81BF-10FF0950BEF5}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:G21"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -70935,11 +70936,11 @@
         <v>8</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J11" si="2">(B2+D2)/I2</f>
+        <f t="shared" ref="J2:J9" si="2">(B2+D2)/I2</f>
         <v>0.5</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K11" si="3">(C2+E2)/I2</f>
+        <f t="shared" ref="K2:K9" si="3">(C2+E2)/I2</f>
         <v>0.5</v>
       </c>
       <c r="L2" s="1">
@@ -71296,49 +71297,49 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="39" t="s">
-        <v>41</v>
+      <c r="A11" s="17" t="s">
+        <v>40</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="17">
         <f>COUNTIFS([1]Kickstarter!$R$2:$R$4115,"plays",[1]Kickstarter!$F$2:$F$4115,"successful",[1]Kickstarter!$U$2:$U$4115,"=30")</f>
         <v>183</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="17">
         <f>COUNTIFS([1]Kickstarter!$R$2:$R$4115,"plays",[1]Kickstarter!$F$2:$F$4115,"failed",[1]Kickstarter!$U$2:$U$4115,"=30")</f>
         <v>110</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17">
         <f>COUNTIFS([1]Kickstarter!$R$2:$R$4115,"plays",[1]Kickstarter!$U$2:$U$4115,"30")</f>
         <v>293</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="18">
         <f>B11/I11</f>
         <v>0.62457337883959041</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="19">
         <f>C11/I11</f>
         <v>0.37542662116040953</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="14" customFormat="1">
-      <c r="A12" s="42" t="s">
-        <v>42</v>
+      <c r="A12" s="20" t="s">
+        <v>41</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="21">
         <f>MODE([1]Kickstarter!$U$2:$U$4115)</f>
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="64">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="41"/>
       <c r="H13" s="2" t="s">
         <v>2</v>
       </c>
@@ -71347,17 +71348,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="H14" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
-      <c r="B15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:12">
@@ -71374,14 +71375,14 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="12"/>
@@ -71389,14 +71390,14 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="12"/>
@@ -71404,37 +71405,37 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -71467,22 +71468,22 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="44" t="s">
-        <v>43</v>
+      <c r="B26" s="37" t="s">
+        <v>48</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -71499,9 +71500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AF11D-985A-9F42-9237-5AC9B36C1630}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="116" zoomScaleNormal="108" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -72151,10 +72153,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="64" customHeight="1">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="40"/>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
@@ -72163,78 +72165,78 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21">
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="H16" s="17" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="H16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+      <c r="I16" s="43"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="65">
-      <c r="B17" s="52" t="s">
-        <v>47</v>
+      <c r="B17" s="27" t="s">
+        <v>45</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="24">
         <f>(1020-46)/1020</f>
         <v>0.95490196078431377</v>
       </c>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="19" t="s">
-        <v>44</v>
+      <c r="B18" s="44" t="s">
+        <v>42</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="2:13" ht="21">
-      <c r="B19" s="22" t="s">
-        <v>45</v>
+      <c r="B19" s="47" t="s">
+        <v>43</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -72268,21 +72270,21 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1">
-      <c r="B27" s="54" t="s">
-        <v>48</v>
+      <c r="B27" s="53" t="s">
+        <v>46</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="55"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="56"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="57"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1">
